--- a/biology/Zoologie/Dryosaurus/Dryosaurus.xlsx
+++ b/biology/Zoologie/Dryosaurus/Dryosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryosaurus (dryosaure en français) est un genre éteint de dinosaures de l'infra-ordre des Iguanodontia[1] de la famille des Dryosauridae ayant vécu au Jurassique supérieur (étages Kimméridgien et Tithonien), il y a environ entre −157 et −145 Ma (millions d'années).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryosaurus (dryosaure en français) est un genre éteint de dinosaures de l'infra-ordre des Iguanodontia de la famille des Dryosauridae ayant vécu au Jurassique supérieur (étages Kimméridgien et Tithonien), il y a environ entre −157 et −145 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hauteur : 1 mètre
 Longueur: 3-4 mètres
@@ -545,7 +559,9 @@
           <t>Défense contre les prédateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez petit, sans carapace ni cornes, Dryosaurus avait un seul moyen pour survivre à l'attaque d'un prédateur : la fuite[réf. nécessaire].
 </t>
@@ -576,11 +592,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dryosaurus altus[2] : Amérique du Nord ;
-Dryosaurus elderae[3] (K. Carpenter and P.M. Galton. 2018)[4] (M.C. Herne, J.P. Nair, A.R. Evans and A.M. Tait. 2019)[5] ;
-Dryosaurus sp. (non nommé) : France, Cap de la Hève (dans le département de la Seine-Maritime)[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dryosaurus altus : Amérique du Nord ;
+Dryosaurus elderae (K. Carpenter and P.M. Galton. 2018) (M.C. Herne, J.P. Nair, A.R. Evans and A.M. Tait. 2019) ;
+Dryosaurus sp. (non nommé) : France, Cap de la Hève (dans le département de la Seine-Maritime).</t>
         </is>
       </c>
     </row>
